--- a/STARTCODING/01_네이버_주식현재가_크롤링/data.xlsx
+++ b/STARTCODING/01_네이버_주식현재가_크롤링/data.xlsx
@@ -1,110 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\python_lab\STARTCODING\01_네이버_주식현재가_크롤링\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6FF41A-9DCF-433F-A2D8-D2B65E52175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="29408" yWindow="1253" windowWidth="19725" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="주식데이터" sheetId="1" r:id="rId1"/>
+    <sheet name="주식데이터" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>종목</t>
-  </si>
-  <si>
-    <t>현재가</t>
-  </si>
-  <si>
-    <t>평균매입가</t>
-  </si>
-  <si>
-    <t>잔고수량</t>
-  </si>
-  <si>
-    <t>평가금액</t>
-  </si>
-  <si>
-    <t>평가손익</t>
-  </si>
-  <si>
-    <t>수익률</t>
-  </si>
-  <si>
-    <t>삼성전자</t>
-  </si>
-  <si>
-    <t>SK하이닉스</t>
-  </si>
-  <si>
-    <t>카카오</t>
-  </si>
-  <si>
-    <t>제주반도체</t>
-  </si>
-  <si>
-    <t>POSCO홀딩스</t>
-  </si>
-  <si>
-    <t>셀트리온</t>
-  </si>
-  <si>
-    <t>NAVER</t>
-  </si>
-  <si>
-    <t>포스코DX</t>
-  </si>
-  <si>
-    <t>에코프로</t>
-  </si>
-  <si>
-    <t>포스코인터내셔널</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode=".00%"/>
+    <numFmt numFmtId="164" formatCode=".00%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,46 +45,99 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="comma" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="percent" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="comma" xfId="1" hidden="0"/>
+    <cellStyle name="percent" xfId="2" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -445,304 +425,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="16" customWidth="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>74700</v>
-      </c>
-      <c r="C2" s="2">
-        <v>91266</v>
-      </c>
-      <c r="D2" s="2">
-        <v>19</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>종목</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>현재가</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>평균매입가</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>잔고수량</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>평가금액</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>평가손익</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>수익률</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>삼성전자</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>75100</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>94617</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>16</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E11" si="0">B2*D2</f>
-        <v>1419300</v>
+        <f>B2*D2</f>
+        <v/>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F11" si="1">E2-C2*D2</f>
-        <v>-314754</v>
+        <f>E2-C2*D2</f>
+        <v/>
       </c>
       <c r="G2" s="3">
-        <f t="shared" ref="G2:G11" si="2">(B2-C2)/C2</f>
-        <v>-0.18151337847610283</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>141300</v>
-      </c>
-      <c r="C3" s="2">
-        <v>116651</v>
-      </c>
-      <c r="D3" s="2">
-        <v>16</v>
+        <f>(B2-C2)/C2</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>SK하이닉스</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>142600</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>151378</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>26</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>2260800</v>
+        <f>B3*D3</f>
+        <v/>
       </c>
       <c r="F3" s="2">
-        <f t="shared" si="1"/>
-        <v>394384</v>
+        <f>E3-C3*D3</f>
+        <v/>
       </c>
       <c r="G3" s="3">
-        <f t="shared" si="2"/>
-        <v>0.21130551816958276</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>57600</v>
-      </c>
-      <c r="C4" s="2">
-        <v>149324</v>
-      </c>
-      <c r="D4" s="2">
-        <v>26</v>
+        <f>(B3-C3)/C3</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>카카오</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>56400</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>104016</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>17</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>1497600</v>
+        <f>B4*D4</f>
+        <v/>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="1"/>
-        <v>-2384824</v>
+        <f>E4-C4*D4</f>
+        <v/>
       </c>
       <c r="G4" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.61426160563606658</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>26250</v>
-      </c>
-      <c r="C5" s="2">
-        <v>135822</v>
-      </c>
-      <c r="D5" s="2">
-        <v>18</v>
+        <f>(B4-C4)/C4</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>제주반도체</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>30700</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>112038</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>25</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>472500</v>
+        <f>B5*D5</f>
+        <v/>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="1"/>
-        <v>-1972296</v>
+        <f>E5-C5*D5</f>
+        <v/>
       </c>
       <c r="G5" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.80673234085788748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>414500</v>
-      </c>
-      <c r="C6" s="2">
-        <v>153852</v>
-      </c>
-      <c r="D6" s="2">
-        <v>11</v>
+        <f>(B5-C5)/C5</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>POSCO홀딩스</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>398500</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>109138</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>29</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>4559500</v>
+        <f>B6*D6</f>
+        <v/>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="1"/>
-        <v>2867128</v>
+        <f>E6-C6*D6</f>
+        <v/>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="2"/>
-        <v>1.6941476223903491</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>176000</v>
-      </c>
-      <c r="C7" s="2">
-        <v>125951</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18</v>
+        <f>(B6-C6)/C6</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>셀트리온</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>183600</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>191415</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
-        <v>3168000</v>
+        <f>B7*D7</f>
+        <v/>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>900882</v>
+        <f>E7-C7*D7</f>
+        <v/>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="2"/>
-        <v>0.39736881803240942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+        <f>(B7-C7)/C7</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>NAVER</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>217000</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>80739</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2">
+        <f>B8*D8</f>
+        <v/>
+      </c>
+      <c r="F8" s="2">
+        <f>E8-C8*D8</f>
+        <v/>
+      </c>
+      <c r="G8" s="3">
+        <f>(B8-C8)/C8</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>포스코DX</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>55300</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>180905</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2">
+        <f>B9*D9</f>
+        <v/>
+      </c>
+      <c r="F9" s="2">
+        <f>E9-C9*D9</f>
+        <v/>
+      </c>
+      <c r="G9" s="3">
+        <f>(B9-C9)/C9</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>에코프로</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="n">
+        <v>515000</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>141465</v>
+      </c>
+      <c r="D10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
-        <v>215500</v>
-      </c>
-      <c r="C8" s="2">
-        <v>126196</v>
-      </c>
-      <c r="D8" s="2">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
-        <v>2586000</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="1"/>
-        <v>1071648</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="2"/>
-        <v>0.70766109860851378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="E10" s="2">
+        <f>B10*D10</f>
+        <v/>
+      </c>
+      <c r="F10" s="2">
+        <f>E10-C10*D10</f>
+        <v/>
+      </c>
+      <c r="G10" s="3">
+        <f>(B10-C10)/C10</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>포스코인터내셔널</t>
+        </is>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>48700</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>95368</v>
+      </c>
+      <c r="D11" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
-        <v>56000</v>
-      </c>
-      <c r="C9" s="2">
-        <v>168579</v>
-      </c>
-      <c r="D9" s="2">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>952000</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="1"/>
-        <v>-1913843</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.66781153049905384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>556000</v>
-      </c>
-      <c r="C10" s="2">
-        <v>113442</v>
-      </c>
-      <c r="D10" s="2">
-        <v>21</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>11676000</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="1"/>
-        <v>9293718</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="2"/>
-        <v>3.9011829833747642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>50200</v>
-      </c>
-      <c r="C11" s="2">
-        <v>175898</v>
-      </c>
-      <c r="D11" s="2">
-        <v>20</v>
-      </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
-        <v>1004000</v>
+        <f>B11*D11</f>
+        <v/>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="1"/>
-        <v>-2513960</v>
+        <f>E11-C11*D11</f>
+        <v/>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
-        <v>-0.71460732924763215</v>
+        <f>(B11-C11)/C11</f>
+        <v/>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>